--- a/results_iteration_data/CP1000_RD_20C/iteration_1/prediction_1/parameters.xlsx
+++ b/results_iteration_data/CP1000_RD_20C/iteration_1/prediction_1/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.332212344269781</v>
+        <v>7.817672357459218</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.999999999999999e-12</v>
+        <v>9.999999999999999e-10</v>
       </c>
     </row>
   </sheetData>
